--- a/data/douradonis/excel/12345679_2025_invoices.xlsx
+++ b/data/douradonis/excel/12345679_2025_invoices.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -711,6 +711,56 @@
         </is>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>400000000000005</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>094439854</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>ΑΛΠ</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>8350</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>11/10/2025</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>ΑΠΟΔΕΙΞΗ</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>3,50</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>3,50</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>8350</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
